--- a/Analisis/inventario promedio.xlsx
+++ b/Analisis/inventario promedio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaimeaguilargarcia/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6C0BCA9-A50F-5742-AF0D-A8B82517855D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90639E-7C00-40BC-986B-3721440D8F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="33520" windowHeight="19200" xr2:uid="{B267885A-95E7-AA43-BFF7-CD54C9E1CB7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B267885A-95E7-AA43-BFF7-CD54C9E1CB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>mes</t>
   </si>
@@ -70,6 +68,12 @@
   <si>
     <t>inventario promedio del periodo</t>
   </si>
+  <si>
+    <t>por producto o en general?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que informacion presentrar en el reporte </t>
+  </si>
 </sst>
 </file>
 
@@ -78,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -87,6 +91,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -128,6 +140,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -443,23 +456,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B97FD8-331F-A24E-8148-6D213DD2ECDD}">
-  <dimension ref="B2:H42"/>
+  <dimension ref="B1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -473,7 +494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -489,7 +510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -500,7 +521,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -511,7 +532,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -524,7 +545,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -537,7 +558,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="34">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -560,7 +586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
@@ -586,7 +612,7 @@
         <v>3450</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2</v>
       </c>
@@ -610,7 +636,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -634,7 +660,7 @@
         <v>3250</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -658,7 +684,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -682,7 +708,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>6</v>
       </c>
@@ -706,7 +732,7 @@
         <v>2950</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>7</v>
       </c>
@@ -730,7 +756,7 @@
         <v>2850</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>8</v>
       </c>
@@ -754,7 +780,7 @@
         <v>2750</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>9</v>
       </c>
@@ -778,7 +804,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>10</v>
       </c>
@@ -802,7 +828,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>11</v>
       </c>
@@ -826,7 +852,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>12</v>
       </c>
@@ -850,7 +876,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>13</v>
       </c>
@@ -874,7 +900,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>14</v>
       </c>
@@ -898,7 +924,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>15</v>
       </c>
@@ -922,7 +948,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>16</v>
       </c>
@@ -946,7 +972,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>17</v>
       </c>
@@ -970,7 +996,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>18</v>
       </c>
@@ -994,7 +1020,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>19</v>
       </c>
@@ -1018,7 +1044,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>20</v>
       </c>
@@ -1042,7 +1068,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>21</v>
       </c>
@@ -1066,7 +1092,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>22</v>
       </c>
@@ -1090,7 +1116,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>23</v>
       </c>
@@ -1114,7 +1140,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>24</v>
       </c>
@@ -1138,7 +1164,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>25</v>
       </c>
@@ -1162,7 +1188,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>26</v>
       </c>
@@ -1186,7 +1212,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>27</v>
       </c>
@@ -1210,7 +1236,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>28</v>
       </c>
@@ -1234,7 +1260,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>29</v>
       </c>
@@ -1258,7 +1284,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>30</v>
       </c>
@@ -1282,7 +1308,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G42" s="5" t="s">
         <v>11</v>
       </c>

--- a/Analisis/inventario promedio.xlsx
+++ b/Analisis/inventario promedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90639E-7C00-40BC-986B-3721440D8F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF47219-CC5D-4ECA-B833-0B243E193622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B267885A-95E7-AA43-BFF7-CD54C9E1CB7E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>mes</t>
   </si>
@@ -74,13 +74,24 @@
   <si>
     <t xml:space="preserve">Que informacion presentrar en el reporte </t>
   </si>
+  <si>
+    <t>dias/Costo de compra</t>
+  </si>
+  <si>
+    <t>costo total de la venta</t>
+  </si>
+  <si>
+    <t>Dias promedio Invenario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -106,12 +117,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -141,6 +158,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -456,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B97FD8-331F-A24E-8148-6D213DD2ECDD}">
-  <dimension ref="B1:M42"/>
+  <dimension ref="B1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -470,6 +490,7 @@
     <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.25">
@@ -563,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -584,6 +605,15 @@
       </c>
       <c r="H10" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
@@ -611,6 +641,21 @@
         <f>(E11+G11)/2</f>
         <v>3450</v>
       </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <f>I11*F11</f>
+        <v>1000</v>
+      </c>
+      <c r="K11" s="9">
+        <f>H11/J11</f>
+        <v>3.45</v>
+      </c>
+      <c r="L11" s="8">
+        <f>1/K11</f>
+        <v>0.28985507246376813</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
@@ -635,13 +680,28 @@
         <f t="shared" ref="H12:H40" si="2">(E12+G12)/2</f>
         <v>3350</v>
       </c>
+      <c r="I12">
+        <v>11</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" ref="J12:J40" si="3">I12*F12</f>
+        <v>1100</v>
+      </c>
+      <c r="K12" s="9">
+        <f t="shared" ref="K12:K40" si="4">H12/J12</f>
+        <v>3.0454545454545454</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" ref="L12:L15" si="5">1/K12</f>
+        <v>0.32835820895522388</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C40" si="3">G12</f>
+        <f t="shared" ref="C13:C40" si="6">G12</f>
         <v>3300</v>
       </c>
       <c r="E13" s="1">
@@ -658,6 +718,21 @@
       <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>3250</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="K13" s="9">
+        <f t="shared" si="4"/>
+        <v>2.7083333333333335</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="5"/>
+        <v>0.3692307692307692</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
@@ -665,7 +740,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
       <c r="E14" s="1">
@@ -682,6 +757,21 @@
       <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3150</v>
+      </c>
+      <c r="I14">
+        <v>13</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="K14" s="9">
+        <f t="shared" si="4"/>
+        <v>2.4230769230769229</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="5"/>
+        <v>0.41269841269841273</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
@@ -689,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3100</v>
       </c>
       <c r="E15" s="1">
@@ -706,6 +796,25 @@
       <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>3050</v>
+      </c>
+      <c r="I15">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="K15" s="9">
+        <f t="shared" si="4"/>
+        <v>2.1785714285714284</v>
+      </c>
+      <c r="L15" s="8">
+        <f>1/K15</f>
+        <v>0.45901639344262302</v>
+      </c>
+      <c r="M15">
+        <f>SUM(L11:L15)/5</f>
+        <v>0.37183177135815942</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
@@ -713,7 +822,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="E16" s="1">
@@ -731,13 +840,32 @@
         <f t="shared" si="2"/>
         <v>2950</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="4"/>
+        <v>1.9666666666666666</v>
+      </c>
+      <c r="L16">
+        <f>SUM(K11:K15)/5</f>
+        <v>2.7610872460872464</v>
+      </c>
+      <c r="M16">
+        <f>5/L16</f>
+        <v>1.8108808430756871</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>7</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2900</v>
       </c>
       <c r="E17" s="1">
@@ -755,13 +883,24 @@
         <f t="shared" si="2"/>
         <v>2850</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="3"/>
+        <v>1600</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="4"/>
+        <v>1.78125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
       <c r="E18" s="1">
@@ -779,13 +918,24 @@
         <f t="shared" si="2"/>
         <v>2750</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>17</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="4"/>
+        <v>1.6176470588235294</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2700</v>
       </c>
       <c r="E19" s="1">
@@ -803,13 +953,24 @@
         <f t="shared" si="2"/>
         <v>2650</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>18</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="3"/>
+        <v>1800</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="4"/>
+        <v>1.4722222222222223</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2600</v>
       </c>
       <c r="E20" s="1">
@@ -827,13 +988,24 @@
         <f t="shared" si="2"/>
         <v>2550</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>1.3421052631578947</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>11</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="E21" s="1">
@@ -851,13 +1023,24 @@
         <f t="shared" si="2"/>
         <v>2450</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>20</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>12</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2400</v>
       </c>
       <c r="E22" s="1">
@@ -875,13 +1058,24 @@
         <f t="shared" si="2"/>
         <v>2350</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>21</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>1.1190476190476191</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>13</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2300</v>
       </c>
       <c r="E23" s="1">
@@ -899,13 +1093,24 @@
         <f t="shared" si="2"/>
         <v>2250</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>22</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="3"/>
+        <v>2200</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>1.0227272727272727</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>14</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2200</v>
       </c>
       <c r="E24" s="1">
@@ -923,13 +1128,24 @@
         <f t="shared" si="2"/>
         <v>2150</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>23</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="3"/>
+        <v>2300</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>0.93478260869565222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>15</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
       <c r="E25" s="1">
@@ -947,13 +1163,24 @@
         <f t="shared" si="2"/>
         <v>2050</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>16</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="E26" s="1">
@@ -971,13 +1198,24 @@
         <f t="shared" si="2"/>
         <v>1950</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>25</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="E27" s="1">
@@ -995,13 +1233,24 @@
         <f t="shared" si="2"/>
         <v>1850</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="3"/>
+        <v>2600</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0.71153846153846156</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>18</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="E28" s="1">
@@ -1019,13 +1268,24 @@
         <f t="shared" si="2"/>
         <v>1750</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>27</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>0.64814814814814814</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="E29" s="1">
@@ -1043,13 +1303,24 @@
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>28</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0.5892857142857143</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>20</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="E30" s="1">
@@ -1067,13 +1338,24 @@
         <f t="shared" si="2"/>
         <v>1550</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>29</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="3"/>
+        <v>2900</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>0.53448275862068961</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>21</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="E31" s="1">
@@ -1091,13 +1373,24 @@
         <f t="shared" si="2"/>
         <v>1450</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>30</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0.48333333333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>22</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1400</v>
       </c>
       <c r="E32" s="1">
@@ -1115,13 +1408,24 @@
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>31</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="3"/>
+        <v>3100</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>0.43548387096774194</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>23</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1300</v>
       </c>
       <c r="E33" s="1">
@@ -1139,13 +1443,24 @@
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>32</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="3"/>
+        <v>3200</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0.390625</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>24</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="E34" s="1">
@@ -1163,13 +1478,24 @@
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>33</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="4"/>
+        <v>0.34848484848484851</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>25</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="E35" s="1">
@@ -1187,13 +1513,24 @@
         <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>34</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="3"/>
+        <v>3400</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="4"/>
+        <v>0.30882352941176472</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>26</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E36" s="1">
@@ -1211,13 +1548,24 @@
         <f t="shared" si="2"/>
         <v>950</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>35</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="3"/>
+        <v>3500</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="4"/>
+        <v>0.27142857142857141</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>27</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="E37" s="1">
@@ -1235,13 +1583,24 @@
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>36</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="3"/>
+        <v>3600</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="4"/>
+        <v>0.2361111111111111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>28</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="E38" s="1">
@@ -1259,13 +1618,24 @@
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>37</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="3"/>
+        <v>3700</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="4"/>
+        <v>0.20270270270270271</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>29</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>700</v>
       </c>
       <c r="E39" s="1">
@@ -1283,13 +1653,24 @@
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>38</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="3"/>
+        <v>3800</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="4"/>
+        <v>0.17105263157894737</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>30</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="E40" s="1">
@@ -1307,14 +1688,45 @@
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>39</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="3"/>
+        <v>3900</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="4"/>
+        <v>0.14102564102564102</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="J41" s="2">
+        <f>SUM(J11:J40)</f>
+        <v>73500</v>
+      </c>
+      <c r="K41">
+        <f>SUM(K11:K40)</f>
+        <v>33.393577931081438</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="G42" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="2">
         <f>AVERAGE(H11:H40)</f>
         <v>2000</v>
+      </c>
+      <c r="J42" s="2">
+        <f>J41/30</f>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H44" s="2">
+        <f>(2000*30)/J42</f>
+        <v>24.489795918367346</v>
       </c>
     </row>
   </sheetData>

--- a/Analisis/inventario promedio.xlsx
+++ b/Analisis/inventario promedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF47219-CC5D-4ECA-B833-0B243E193622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB08082-77C6-432F-8EAE-C0FEE8D0E40A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B267885A-95E7-AA43-BFF7-CD54C9E1CB7E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>mes</t>
   </si>
@@ -78,10 +78,34 @@
     <t>dias/Costo de compra</t>
   </si>
   <si>
-    <t>costo total de la venta</t>
-  </si>
-  <si>
     <t>Dias promedio Invenario</t>
+  </si>
+  <si>
+    <t>costo total del Inv Promedio</t>
+  </si>
+  <si>
+    <t>Costo Inv Promedio</t>
+  </si>
+  <si>
+    <t>costo de ventas</t>
+  </si>
+  <si>
+    <t>suma de todo el producto que se vendio durante el rango dias</t>
+  </si>
+  <si>
+    <t>costo venta diario</t>
+  </si>
+  <si>
+    <t>costo de Compra(realice una compra)</t>
+  </si>
+  <si>
+    <t>costo de lo vendido</t>
+  </si>
+  <si>
+    <t>Dias Promedio</t>
+  </si>
+  <si>
+    <t>Rotacion Inv</t>
   </si>
 </sst>
 </file>
@@ -90,8 +114,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -144,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -159,8 +183,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -476,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B97FD8-331F-A24E-8148-6D213DD2ECDD}">
-  <dimension ref="B1:M44"/>
+  <dimension ref="B1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -487,21 +523,22 @@
     <col min="2" max="2" width="22.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="12" max="12" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="6" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -515,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -531,7 +568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -542,7 +579,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -553,7 +590,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -566,7 +603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -579,12 +616,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="63" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -601,22 +638,25 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="L10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
@@ -634,35 +674,38 @@
         <v>100</v>
       </c>
       <c r="G11" s="1">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
         <f>E11-F11</f>
         <v>3400</v>
       </c>
-      <c r="H11" s="2">
-        <f>(E11+G11)/2</f>
+      <c r="I11" s="2">
+        <f>(E11+H11)/2</f>
         <v>3450</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="J11" s="2">
-        <f>I11*F11</f>
-        <v>1000</v>
-      </c>
-      <c r="K11" s="9">
-        <f>H11/J11</f>
-        <v>3.45</v>
-      </c>
-      <c r="L11" s="8">
-        <f>1/K11</f>
-        <v>0.28985507246376813</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K11" s="2">
+        <f>I11*J11</f>
+        <v>34500</v>
+      </c>
+      <c r="L11" s="9">
+        <f>I11/K11</f>
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="8">
+        <f>1/L11</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <f>G11</f>
+        <f>H11</f>
         <v>3400</v>
       </c>
       <c r="E12" s="1">
@@ -673,35 +716,38 @@
         <v>100</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:G40" si="1">E12-F12</f>
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12:H40" si="1">E12-F12</f>
         <v>3300</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" ref="H12:H40" si="2">(E12+G12)/2</f>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:I40" si="2">(E12+H12)/2</f>
         <v>3350</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>11</v>
       </c>
-      <c r="J12" s="2">
-        <f t="shared" ref="J12:J40" si="3">I12*F12</f>
-        <v>1100</v>
-      </c>
-      <c r="K12" s="9">
-        <f t="shared" ref="K12:K40" si="4">H12/J12</f>
-        <v>3.0454545454545454</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" ref="L12:L15" si="5">1/K12</f>
-        <v>0.32835820895522388</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="2">
+        <f t="shared" ref="K12:K41" si="3">I12*J12</f>
+        <v>36850</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" ref="L12:L40" si="4">I12/K12</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" ref="M12:M14" si="5">1/L12</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C40" si="6">G12</f>
+        <f t="shared" ref="C13:C40" si="6">H12</f>
         <v>3300</v>
       </c>
       <c r="E13" s="1">
@@ -712,30 +758,33 @@
         <v>100</v>
       </c>
       <c r="G13" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>3250</v>
       </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="3"/>
-        <v>1200</v>
-      </c>
-      <c r="K13" s="9">
-        <f t="shared" si="4"/>
-        <v>2.7083333333333335</v>
-      </c>
-      <c r="L13" s="8">
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
+        <v>39000</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M13" s="8">
         <f t="shared" si="5"/>
-        <v>0.3692307692307692</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>4</v>
       </c>
@@ -751,30 +800,33 @@
         <v>100</v>
       </c>
       <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>3100</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="2"/>
         <v>3150</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>13</v>
       </c>
-      <c r="J14" s="2">
-        <f t="shared" si="3"/>
-        <v>1300</v>
-      </c>
-      <c r="K14" s="9">
-        <f t="shared" si="4"/>
-        <v>2.4230769230769229</v>
-      </c>
-      <c r="L14" s="8">
+      <c r="K14" s="2">
+        <f t="shared" si="3"/>
+        <v>40950</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M14" s="8">
         <f t="shared" si="5"/>
-        <v>0.41269841269841273</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -790,34 +842,37 @@
         <v>100</v>
       </c>
       <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <f t="shared" si="2"/>
         <v>3050</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>14</v>
       </c>
-      <c r="J15" s="2">
-        <f t="shared" si="3"/>
-        <v>1400</v>
-      </c>
-      <c r="K15" s="9">
-        <f t="shared" si="4"/>
-        <v>2.1785714285714284</v>
-      </c>
-      <c r="L15" s="8">
-        <f>1/K15</f>
-        <v>0.45901639344262302</v>
-      </c>
-      <c r="M15">
-        <f>SUM(L11:L15)/5</f>
-        <v>0.37183177135815942</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>42700</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="M15" s="8">
+        <f>1/L15</f>
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <f>SUM(M11:M15)/5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>6</v>
       </c>
@@ -833,34 +888,37 @@
         <v>100</v>
       </c>
       <c r="G16" s="1">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <f t="shared" si="2"/>
         <v>2950</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>15</v>
       </c>
-      <c r="J16" s="2">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-      <c r="K16" s="7">
-        <f t="shared" si="4"/>
-        <v>1.9666666666666666</v>
-      </c>
-      <c r="L16">
-        <f>SUM(K11:K15)/5</f>
-        <v>2.7610872460872464</v>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
+        <v>44250</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M16">
-        <f>5/L16</f>
-        <v>1.8108808430756871</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <f>SUM(L11:L15)/5</f>
+        <v>8.4518814518814517E-2</v>
+      </c>
+      <c r="N16">
+        <f>5/M16</f>
+        <v>59.15842559394823</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>7</v>
       </c>
@@ -876,26 +934,29 @@
         <v>100</v>
       </c>
       <c r="G17" s="1">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <f t="shared" si="2"/>
         <v>2850</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>16</v>
       </c>
-      <c r="J17" s="2">
-        <f t="shared" si="3"/>
-        <v>1600</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="4"/>
-        <v>1.78125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="2">
+        <f t="shared" si="3"/>
+        <v>45600</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>8</v>
       </c>
@@ -911,26 +972,29 @@
         <v>100</v>
       </c>
       <c r="G18" s="1">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <f t="shared" si="2"/>
         <v>2750</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>17</v>
       </c>
-      <c r="J18" s="2">
-        <f t="shared" si="3"/>
-        <v>1700</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="4"/>
-        <v>1.6176470588235294</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="2">
+        <f t="shared" si="3"/>
+        <v>46750</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>9</v>
       </c>
@@ -946,26 +1010,29 @@
         <v>100</v>
       </c>
       <c r="G19" s="1">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>2600</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="2"/>
         <v>2650</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>18</v>
       </c>
-      <c r="J19" s="2">
-        <f t="shared" si="3"/>
-        <v>1800</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="4"/>
-        <v>1.4722222222222223</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="2">
+        <f t="shared" si="3"/>
+        <v>47700</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>10</v>
       </c>
@@ -981,26 +1048,29 @@
         <v>100</v>
       </c>
       <c r="G20" s="1">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <f t="shared" si="2"/>
         <v>2550</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>19</v>
       </c>
-      <c r="J20" s="2">
-        <f t="shared" si="3"/>
-        <v>1900</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="4"/>
-        <v>1.3421052631578947</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="2">
+        <f t="shared" si="3"/>
+        <v>48450</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>11</v>
       </c>
@@ -1016,26 +1086,29 @@
         <v>100</v>
       </c>
       <c r="G21" s="1">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <f t="shared" si="2"/>
         <v>2450</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>20</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="4"/>
-        <v>1.2250000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="2">
+        <f t="shared" si="3"/>
+        <v>49000</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>12</v>
       </c>
@@ -1051,26 +1124,29 @@
         <v>100</v>
       </c>
       <c r="G22" s="1">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="1"/>
         <v>2300</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <f t="shared" si="2"/>
         <v>2350</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>21</v>
       </c>
-      <c r="J22" s="2">
-        <f t="shared" si="3"/>
-        <v>2100</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="4"/>
-        <v>1.1190476190476191</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="2">
+        <f t="shared" si="3"/>
+        <v>49350</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>13</v>
       </c>
@@ -1086,26 +1162,29 @@
         <v>100</v>
       </c>
       <c r="G23" s="1">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <f t="shared" si="2"/>
         <v>2250</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>22</v>
       </c>
-      <c r="J23" s="2">
-        <f t="shared" si="3"/>
-        <v>2200</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>1.0227272727272727</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="2">
+        <f t="shared" si="3"/>
+        <v>49500</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>14</v>
       </c>
@@ -1121,26 +1200,29 @@
         <v>100</v>
       </c>
       <c r="G24" s="1">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <f t="shared" si="2"/>
         <v>2150</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>23</v>
       </c>
-      <c r="J24" s="2">
-        <f t="shared" si="3"/>
-        <v>2300</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="4"/>
-        <v>0.93478260869565222</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="2">
+        <f t="shared" si="3"/>
+        <v>49450</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>15</v>
       </c>
@@ -1156,26 +1238,29 @@
         <v>100</v>
       </c>
       <c r="G25" s="1">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <f t="shared" si="2"/>
         <v>2050</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>24</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="4"/>
-        <v>0.85416666666666663</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="2">
+        <f t="shared" si="3"/>
+        <v>49200</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>16</v>
       </c>
@@ -1191,26 +1276,29 @@
         <v>100</v>
       </c>
       <c r="G26" s="1">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <f t="shared" si="2"/>
         <v>1950</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>25</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="4"/>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="2">
+        <f t="shared" si="3"/>
+        <v>48750</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>17</v>
       </c>
@@ -1226,26 +1314,29 @@
         <v>100</v>
       </c>
       <c r="G27" s="1">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <f t="shared" si="2"/>
         <v>1850</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>26</v>
       </c>
-      <c r="J27" s="2">
-        <f t="shared" si="3"/>
-        <v>2600</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>0.71153846153846156</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="2">
+        <f t="shared" si="3"/>
+        <v>48100</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>18</v>
       </c>
@@ -1261,26 +1352,29 @@
         <v>100</v>
       </c>
       <c r="G28" s="1">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <f t="shared" si="2"/>
         <v>1750</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>27</v>
       </c>
-      <c r="J28" s="2">
-        <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="4"/>
-        <v>0.64814814814814814</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="2">
+        <f t="shared" si="3"/>
+        <v>47250</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>19</v>
       </c>
@@ -1296,26 +1390,29 @@
         <v>100</v>
       </c>
       <c r="G29" s="1">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>28</v>
       </c>
-      <c r="J29" s="2">
-        <f t="shared" si="3"/>
-        <v>2800</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="4"/>
-        <v>0.5892857142857143</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="2">
+        <f t="shared" si="3"/>
+        <v>46200</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>20</v>
       </c>
@@ -1331,26 +1428,29 @@
         <v>100</v>
       </c>
       <c r="G30" s="1">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <f t="shared" si="2"/>
         <v>1550</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>29</v>
       </c>
-      <c r="J30" s="2">
-        <f t="shared" si="3"/>
-        <v>2900</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="4"/>
-        <v>0.53448275862068961</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="2">
+        <f t="shared" si="3"/>
+        <v>44950</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>21</v>
       </c>
@@ -1366,26 +1466,29 @@
         <v>100</v>
       </c>
       <c r="G31" s="1">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <f t="shared" si="2"/>
         <v>1450</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>30</v>
       </c>
-      <c r="J31" s="2">
-        <f t="shared" si="3"/>
-        <v>3000</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="4"/>
-        <v>0.48333333333333334</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="2">
+        <f t="shared" si="3"/>
+        <v>43500</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>22</v>
       </c>
@@ -1401,26 +1504,29 @@
         <v>100</v>
       </c>
       <c r="G32" s="1">
+        <v>12</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>31</v>
       </c>
-      <c r="J32" s="2">
-        <f t="shared" si="3"/>
-        <v>3100</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="4"/>
-        <v>0.43548387096774194</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="2">
+        <f t="shared" si="3"/>
+        <v>41850</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>23</v>
       </c>
@@ -1436,26 +1542,29 @@
         <v>100</v>
       </c>
       <c r="G33" s="1">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>32</v>
       </c>
-      <c r="J33" s="2">
-        <f t="shared" si="3"/>
-        <v>3200</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="4"/>
-        <v>0.390625</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="2">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>24</v>
       </c>
@@ -1471,26 +1580,29 @@
         <v>100</v>
       </c>
       <c r="G34" s="1">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>33</v>
       </c>
-      <c r="J34" s="2">
-        <f t="shared" si="3"/>
-        <v>3300</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="4"/>
-        <v>0.34848484848484851</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="2">
+        <f t="shared" si="3"/>
+        <v>37950</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>25</v>
       </c>
@@ -1506,26 +1618,29 @@
         <v>100</v>
       </c>
       <c r="G35" s="1">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>34</v>
       </c>
-      <c r="J35" s="2">
-        <f t="shared" si="3"/>
-        <v>3400</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="4"/>
-        <v>0.30882352941176472</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="2">
+        <f t="shared" si="3"/>
+        <v>35700</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>26</v>
       </c>
@@ -1541,26 +1656,29 @@
         <v>100</v>
       </c>
       <c r="G36" s="1">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <f t="shared" si="2"/>
         <v>950</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>35</v>
       </c>
-      <c r="J36" s="2">
-        <f t="shared" si="3"/>
-        <v>3500</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="4"/>
-        <v>0.27142857142857141</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="2">
+        <f t="shared" si="3"/>
+        <v>33250</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>27</v>
       </c>
@@ -1576,26 +1694,29 @@
         <v>100</v>
       </c>
       <c r="G37" s="1">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>36</v>
       </c>
-      <c r="J37" s="2">
-        <f t="shared" si="3"/>
-        <v>3600</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="4"/>
-        <v>0.2361111111111111</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="2">
+        <f t="shared" si="3"/>
+        <v>30600</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>28</v>
       </c>
@@ -1611,26 +1732,29 @@
         <v>100</v>
       </c>
       <c r="G38" s="1">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>37</v>
       </c>
-      <c r="J38" s="2">
-        <f t="shared" si="3"/>
-        <v>3700</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="4"/>
-        <v>0.20270270270270271</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="2">
+        <f t="shared" si="3"/>
+        <v>27750</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>29</v>
       </c>
@@ -1646,26 +1770,29 @@
         <v>100</v>
       </c>
       <c r="G39" s="1">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>38</v>
       </c>
-      <c r="J39" s="2">
-        <f t="shared" si="3"/>
-        <v>3800</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="4"/>
-        <v>0.17105263157894737</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="2">
+        <f t="shared" si="3"/>
+        <v>24700</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>30</v>
       </c>
@@ -1681,55 +1808,121 @@
         <v>100</v>
       </c>
       <c r="G40" s="1">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>39</v>
       </c>
-      <c r="J40" s="2">
-        <f t="shared" si="3"/>
-        <v>3900</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="4"/>
-        <v>0.14102564102564102</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="J41" s="2">
-        <f>SUM(J11:J40)</f>
-        <v>73500</v>
-      </c>
-      <c r="K41">
-        <f>SUM(K11:K40)</f>
-        <v>33.393577931081438</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G42" s="5" t="s">
+      <c r="K40" s="2">
+        <f t="shared" si="3"/>
+        <v>21450</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1">
+        <f>SUMPRODUCT(G11:G40,F11:F40)</f>
+        <v>36800</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>SUM(L11:L40)</f>
+        <v>1.4245747849681218</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="2">
-        <f>AVERAGE(H11:H40)</f>
+      <c r="I43" s="2">
+        <f>AVERAGE(I11:I40)</f>
         <v>2000</v>
       </c>
-      <c r="J42" s="2">
-        <f>J41/30</f>
-        <v>2450</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="H44" s="2">
-        <f>(2000*30)/J42</f>
-        <v>24.489795918367346</v>
+      <c r="K43" s="2">
+        <f>K41/30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="H45" s="1">
+        <f>I43*AVERAGE(G11:G40)</f>
+        <v>24533.333333333336</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="H46" s="1">
+        <f>H45*30/G41</f>
+        <v>20.000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1" t="e">
+        <f>F41*C44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="H47" s="1">
+        <f>30/H46</f>
+        <v>1.4999999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analisis/inventario promedio.xlsx
+++ b/Analisis/inventario promedio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A90639E-7C00-40BC-986B-3721440D8F11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB08082-77C6-432F-8EAE-C0FEE8D0E40A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B267885A-95E7-AA43-BFF7-CD54C9E1CB7E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>mes</t>
   </si>
@@ -73,14 +73,49 @@
   </si>
   <si>
     <t xml:space="preserve">Que informacion presentrar en el reporte </t>
+  </si>
+  <si>
+    <t>dias/Costo de compra</t>
+  </si>
+  <si>
+    <t>Dias promedio Invenario</t>
+  </si>
+  <si>
+    <t>costo total del Inv Promedio</t>
+  </si>
+  <si>
+    <t>Costo Inv Promedio</t>
+  </si>
+  <si>
+    <t>costo de ventas</t>
+  </si>
+  <si>
+    <t>suma de todo el producto que se vendio durante el rango dias</t>
+  </si>
+  <si>
+    <t>costo venta diario</t>
+  </si>
+  <si>
+    <t>costo de Compra(realice una compra)</t>
+  </si>
+  <si>
+    <t>costo de lo vendido</t>
+  </si>
+  <si>
+    <t>Dias Promedio</t>
+  </si>
+  <si>
+    <t>Rotacion Inv</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -106,12 +141,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +168,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -141,6 +182,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -456,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B97FD8-331F-A24E-8148-6D213DD2ECDD}">
-  <dimension ref="B1:M42"/>
+  <dimension ref="B1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -467,20 +523,22 @@
     <col min="2" max="2" width="22.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="6" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -494,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -510,7 +568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -521,7 +579,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -532,7 +590,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -545,7 +603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -558,12 +616,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="63" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
@@ -580,13 +638,25 @@
         <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>1</v>
       </c>
@@ -604,20 +674,38 @@
         <v>100</v>
       </c>
       <c r="G11" s="1">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
         <f>E11-F11</f>
         <v>3400</v>
       </c>
-      <c r="H11" s="2">
-        <f>(E11+G11)/2</f>
+      <c r="I11" s="2">
+        <f>(E11+H11)/2</f>
         <v>3450</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <f>I11*J11</f>
+        <v>34500</v>
+      </c>
+      <c r="L11" s="9">
+        <f>I11/K11</f>
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="8">
+        <f>1/L11</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <f>G11</f>
+        <f>H11</f>
         <v>3400</v>
       </c>
       <c r="E12" s="1">
@@ -628,20 +716,38 @@
         <v>100</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ref="G12:G40" si="1">E12-F12</f>
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" ref="H12:H40" si="1">E12-F12</f>
         <v>3300</v>
       </c>
-      <c r="H12" s="2">
-        <f t="shared" ref="H12:H40" si="2">(E12+G12)/2</f>
+      <c r="I12" s="2">
+        <f t="shared" ref="I12:I40" si="2">(E12+H12)/2</f>
         <v>3350</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12:K41" si="3">I12*J12</f>
+        <v>36850</v>
+      </c>
+      <c r="L12" s="9">
+        <f t="shared" ref="L12:L40" si="4">I12/K12</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" ref="M12:M14" si="5">1/L12</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>3</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C40" si="3">G12</f>
+        <f t="shared" ref="C13:C40" si="6">H12</f>
         <v>3300</v>
       </c>
       <c r="E13" s="1">
@@ -652,20 +758,38 @@
         <v>100</v>
       </c>
       <c r="G13" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>3200</v>
       </c>
-      <c r="H13" s="2">
+      <c r="I13" s="2">
         <f t="shared" si="2"/>
         <v>3250</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="3"/>
+        <v>39000</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3200</v>
       </c>
       <c r="E14" s="1">
@@ -676,20 +800,38 @@
         <v>100</v>
       </c>
       <c r="G14" s="1">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>3100</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <f t="shared" si="2"/>
         <v>3150</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="3"/>
+        <v>40950</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="4"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>5</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3100</v>
       </c>
       <c r="E15" s="1">
@@ -700,20 +842,42 @@
         <v>100</v>
       </c>
       <c r="G15" s="1">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <f t="shared" si="2"/>
         <v>3050</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>14</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="3"/>
+        <v>42700</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="M15" s="8">
+        <f>1/L15</f>
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <f>SUM(M11:M15)/5</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>6</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
       <c r="E16" s="1">
@@ -724,20 +888,42 @@
         <v>100</v>
       </c>
       <c r="G16" s="1">
+        <v>12</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="H16" s="2">
+      <c r="I16" s="2">
         <f t="shared" si="2"/>
         <v>2950</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="3"/>
+        <v>44250</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M16">
+        <f>SUM(L11:L15)/5</f>
+        <v>8.4518814518814517E-2</v>
+      </c>
+      <c r="N16">
+        <f>5/M16</f>
+        <v>59.15842559394823</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>7</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2900</v>
       </c>
       <c r="E17" s="1">
@@ -748,20 +934,34 @@
         <v>100</v>
       </c>
       <c r="G17" s="1">
+        <v>12</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
-      <c r="H17" s="2">
+      <c r="I17" s="2">
         <f t="shared" si="2"/>
         <v>2850</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="3"/>
+        <v>45600</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>8</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2800</v>
       </c>
       <c r="E18" s="1">
@@ -772,20 +972,34 @@
         <v>100</v>
       </c>
       <c r="G18" s="1">
+        <v>12</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="H18" s="2">
+      <c r="I18" s="2">
         <f t="shared" si="2"/>
         <v>2750</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="3"/>
+        <v>46750</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2700</v>
       </c>
       <c r="E19" s="1">
@@ -796,20 +1010,34 @@
         <v>100</v>
       </c>
       <c r="G19" s="1">
+        <v>12</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>2600</v>
       </c>
-      <c r="H19" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="2"/>
         <v>2650</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>18</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="3"/>
+        <v>47700</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>10</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2600</v>
       </c>
       <c r="E20" s="1">
@@ -820,20 +1048,34 @@
         <v>100</v>
       </c>
       <c r="G20" s="1">
+        <v>12</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="H20" s="2">
+      <c r="I20" s="2">
         <f t="shared" si="2"/>
         <v>2550</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>19</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="3"/>
+        <v>48450</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>11</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="E21" s="1">
@@ -844,20 +1086,34 @@
         <v>100</v>
       </c>
       <c r="G21" s="1">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-      <c r="H21" s="2">
+      <c r="I21" s="2">
         <f t="shared" si="2"/>
         <v>2450</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="3"/>
+        <v>49000</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>12</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2400</v>
       </c>
       <c r="E22" s="1">
@@ -868,20 +1124,34 @@
         <v>100</v>
       </c>
       <c r="G22" s="1">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1">
         <f t="shared" si="1"/>
         <v>2300</v>
       </c>
-      <c r="H22" s="2">
+      <c r="I22" s="2">
         <f t="shared" si="2"/>
         <v>2350</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>21</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="3"/>
+        <v>49350</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>13</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2300</v>
       </c>
       <c r="E23" s="1">
@@ -892,20 +1162,34 @@
         <v>100</v>
       </c>
       <c r="G23" s="1">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1">
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
-      <c r="H23" s="2">
+      <c r="I23" s="2">
         <f t="shared" si="2"/>
         <v>2250</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="3"/>
+        <v>49500</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <v>14</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2200</v>
       </c>
       <c r="E24" s="1">
@@ -916,20 +1200,34 @@
         <v>100</v>
       </c>
       <c r="G24" s="1">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1">
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I24" s="2">
         <f t="shared" si="2"/>
         <v>2150</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="3"/>
+        <v>49450</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <v>15</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2100</v>
       </c>
       <c r="E25" s="1">
@@ -940,20 +1238,34 @@
         <v>100</v>
       </c>
       <c r="G25" s="1">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1">
         <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I25" s="2">
         <f t="shared" si="2"/>
         <v>2050</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>24</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="3"/>
+        <v>49200</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <v>16</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="E26" s="1">
@@ -964,20 +1276,34 @@
         <v>100</v>
       </c>
       <c r="G26" s="1">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I26" s="2">
         <f t="shared" si="2"/>
         <v>1950</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>25</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="3"/>
+        <v>48750</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1900</v>
       </c>
       <c r="E27" s="1">
@@ -988,20 +1314,34 @@
         <v>100</v>
       </c>
       <c r="G27" s="1">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I27" s="2">
         <f t="shared" si="2"/>
         <v>1850</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="3"/>
+        <v>48100</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <v>18</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1800</v>
       </c>
       <c r="E28" s="1">
@@ -1012,20 +1352,34 @@
         <v>100</v>
       </c>
       <c r="G28" s="1">
+        <v>12</v>
+      </c>
+      <c r="H28" s="1">
         <f t="shared" si="1"/>
         <v>1700</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <f t="shared" si="2"/>
         <v>1750</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="3"/>
+        <v>47250</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>19</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1700</v>
       </c>
       <c r="E29" s="1">
@@ -1036,20 +1390,34 @@
         <v>100</v>
       </c>
       <c r="G29" s="1">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1">
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
-      <c r="H29" s="2">
+      <c r="I29" s="2">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>28</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="3"/>
+        <v>46200</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <v>20</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1600</v>
       </c>
       <c r="E30" s="1">
@@ -1060,20 +1428,34 @@
         <v>100</v>
       </c>
       <c r="G30" s="1">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="H30" s="2">
+      <c r="I30" s="2">
         <f t="shared" si="2"/>
         <v>1550</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>29</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="3"/>
+        <v>44950</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>21</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="E31" s="1">
@@ -1084,20 +1466,34 @@
         <v>100</v>
       </c>
       <c r="G31" s="1">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1">
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="H31" s="2">
+      <c r="I31" s="2">
         <f t="shared" si="2"/>
         <v>1450</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>30</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="3"/>
+        <v>43500</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="3">
         <v>22</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1400</v>
       </c>
       <c r="E32" s="1">
@@ -1108,20 +1504,34 @@
         <v>100</v>
       </c>
       <c r="G32" s="1">
+        <v>12</v>
+      </c>
+      <c r="H32" s="1">
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>31</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="3"/>
+        <v>41850</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="3">
         <v>23</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1300</v>
       </c>
       <c r="E33" s="1">
@@ -1132,20 +1542,34 @@
         <v>100</v>
       </c>
       <c r="G33" s="1">
+        <v>13</v>
+      </c>
+      <c r="H33" s="1">
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="H33" s="2">
+      <c r="I33" s="2">
         <f t="shared" si="2"/>
         <v>1250</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>32</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
         <v>24</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1200</v>
       </c>
       <c r="E34" s="1">
@@ -1156,20 +1580,34 @@
         <v>100</v>
       </c>
       <c r="G34" s="1">
+        <v>13</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-      <c r="H34" s="2">
+      <c r="I34" s="2">
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>33</v>
+      </c>
+      <c r="K34" s="2">
+        <f t="shared" si="3"/>
+        <v>37950</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="3">
         <v>25</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1100</v>
       </c>
       <c r="E35" s="1">
@@ -1180,20 +1618,34 @@
         <v>100</v>
       </c>
       <c r="G35" s="1">
+        <v>13</v>
+      </c>
+      <c r="H35" s="1">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>34</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="3"/>
+        <v>35700</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="3">
         <v>26</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="E36" s="1">
@@ -1204,20 +1656,34 @@
         <v>100</v>
       </c>
       <c r="G36" s="1">
+        <v>13</v>
+      </c>
+      <c r="H36" s="1">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <f t="shared" si="2"/>
         <v>950</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>35</v>
+      </c>
+      <c r="K36" s="2">
+        <f t="shared" si="3"/>
+        <v>33250</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>27</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="E37" s="1">
@@ -1228,20 +1694,34 @@
         <v>100</v>
       </c>
       <c r="G37" s="1">
+        <v>13</v>
+      </c>
+      <c r="H37" s="1">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H37" s="2">
+      <c r="I37" s="2">
         <f t="shared" si="2"/>
         <v>850</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>36</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="3"/>
+        <v>30600</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="3">
         <v>28</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>800</v>
       </c>
       <c r="E38" s="1">
@@ -1252,20 +1732,34 @@
         <v>100</v>
       </c>
       <c r="G38" s="1">
+        <v>13</v>
+      </c>
+      <c r="H38" s="1">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>37</v>
+      </c>
+      <c r="K38" s="2">
+        <f t="shared" si="3"/>
+        <v>27750</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>2.7027027027027029E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="3">
         <v>29</v>
       </c>
       <c r="C39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>700</v>
       </c>
       <c r="E39" s="1">
@@ -1276,20 +1770,34 @@
         <v>100</v>
       </c>
       <c r="G39" s="1">
+        <v>13</v>
+      </c>
+      <c r="H39" s="1">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="H39" s="2">
+      <c r="I39" s="2">
         <f t="shared" si="2"/>
         <v>650</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>38</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="3"/>
+        <v>24700</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>2.6315789473684209E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="3">
         <v>30</v>
       </c>
       <c r="C40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="E40" s="1">
@@ -1300,24 +1808,121 @@
         <v>100</v>
       </c>
       <c r="G40" s="1">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1">
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-      <c r="H40" s="2">
+      <c r="I40" s="2">
         <f t="shared" si="2"/>
         <v>550</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G42" s="5" t="s">
+      <c r="J40">
+        <v>39</v>
+      </c>
+      <c r="K40" s="2">
+        <f t="shared" si="3"/>
+        <v>21450</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>2.564102564102564E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="1">
+        <f>SUMPRODUCT(G11:G40,F11:F40)</f>
+        <v>36800</v>
+      </c>
+      <c r="K41" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f>SUM(L11:L40)</f>
+        <v>1.4245747849681218</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="H43" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H42" s="2">
-        <f>AVERAGE(H11:H40)</f>
+      <c r="I43" s="2">
+        <f>AVERAGE(I11:I40)</f>
         <v>2000</v>
       </c>
+      <c r="K43" s="2">
+        <f>K41/30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="H45" s="1">
+        <f>I43*AVERAGE(G11:G40)</f>
+        <v>24533.333333333336</v>
+      </c>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="E46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="13"/>
+      <c r="H46" s="1">
+        <f>H45*30/G41</f>
+        <v>20.000000000000004</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="1" t="e">
+        <f>F41*C44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="H47" s="1">
+        <f>30/H46</f>
+        <v>1.4999999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Analisis/inventario promedio.xlsx
+++ b/Analisis/inventario promedio.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\comercializadora\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB08082-77C6-432F-8EAE-C0FEE8D0E40A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8FBDCA-02AA-4643-9785-F4219F49B9C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B267885A-95E7-AA43-BFF7-CD54C9E1CB7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -514,15 +517,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B97FD8-331F-A24E-8148-6D213DD2ECDD}">
   <dimension ref="B1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.75" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.625" style="1" customWidth="1"/>
@@ -621,7 +625,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="63" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
